--- a/database/industries/biscuit/ghesalem/product/yearly_seprated.xlsx
+++ b/database/industries/biscuit/ghesalem/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\biscuit\ghesalem\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1859A3-5FE1-4BA6-8851-8B8802BFD185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D915DBB5-CDC3-4121-9189-7F002CD368E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,10 +61,10 @@
     <t>تن</t>
   </si>
   <si>
+    <t>انواع بیسکویت</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>انواع بیسکویت</t>
   </si>
   <si>
     <t>ویفان</t>
@@ -661,12 +661,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -676,7 +676,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -700,7 +700,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -710,7 +710,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -744,7 +744,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -776,7 +776,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -796,47 +796,47 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>9202</v>
+      </c>
+      <c r="F11" s="11">
+        <v>9921</v>
+      </c>
+      <c r="G11" s="11">
+        <v>10519</v>
+      </c>
+      <c r="H11" s="11">
+        <v>11471</v>
+      </c>
+      <c r="I11" s="11">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>9202</v>
-      </c>
-      <c r="G11" s="11">
-        <v>9921</v>
-      </c>
-      <c r="H11" s="11">
-        <v>10519</v>
-      </c>
-      <c r="I11" s="11">
-        <v>11471</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>8152</v>
       </c>
       <c r="F12" s="13">
-        <v>8152</v>
+        <v>7893</v>
       </c>
       <c r="G12" s="13">
-        <v>7893</v>
-      </c>
-      <c r="H12" s="13">
         <v>8792</v>
       </c>
+      <c r="H12" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -844,23 +844,23 @@
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>367</v>
       </c>
       <c r="F13" s="11">
-        <v>367</v>
+        <v>6</v>
       </c>
       <c r="G13" s="11">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="H13" s="11">
-        <v>393</v>
+        <v>838</v>
       </c>
       <c r="I13" s="11">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -868,23 +868,23 @@
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>19782</v>
       </c>
       <c r="F14" s="13">
-        <v>19782</v>
+        <v>22252</v>
       </c>
       <c r="G14" s="13">
-        <v>22252</v>
+        <v>19356</v>
       </c>
       <c r="H14" s="13">
-        <v>19356</v>
+        <v>19880</v>
       </c>
       <c r="I14" s="13">
-        <v>19880</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17938</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -893,22 +893,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2228</v>
       </c>
       <c r="I15" s="11">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -916,23 +916,23 @@
         <v>12</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>13</v>
+      <c r="E16" s="13">
+        <v>167</v>
       </c>
       <c r="F16" s="13">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="G16" s="13">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H16" s="13">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I16" s="13">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -941,22 +941,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6373</v>
       </c>
       <c r="I17" s="11">
-        <v>6373</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -965,22 +965,22 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H18" s="13">
+        <v>119</v>
       </c>
       <c r="I18" s="13">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -989,44 +989,44 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1092</v>
       </c>
       <c r="I19" s="11">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>37670</v>
       </c>
       <c r="F20" s="15">
-        <v>37670</v>
+        <v>40139</v>
       </c>
       <c r="G20" s="15">
-        <v>40139</v>
+        <v>39136</v>
       </c>
       <c r="H20" s="15">
-        <v>39136</v>
+        <v>42069</v>
       </c>
       <c r="I20" s="15">
-        <v>42069</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>26</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>27</v>
       </c>
@@ -1102,8 +1102,8 @@
         <v>28</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
+      <c r="E25" s="15">
+        <v>0</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
@@ -1111,21 +1111,21 @@
       <c r="G25" s="15">
         <v>0</v>
       </c>
-      <c r="H25" s="15">
-        <v>0</v>
+      <c r="H25" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="19" t="s">
-        <v>13</v>
+      <c r="E26" s="19">
+        <v>0</v>
       </c>
       <c r="F26" s="19">
         <v>0</v>
@@ -1140,29 +1140,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>0</v>
+        <v>37670</v>
       </c>
       <c r="F27" s="15">
-        <v>37670</v>
+        <v>40139</v>
       </c>
       <c r="G27" s="15">
-        <v>40139</v>
+        <v>39136</v>
       </c>
       <c r="H27" s="15">
-        <v>39136</v>
+        <v>42069</v>
       </c>
       <c r="I27" s="15">
-        <v>42069</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1172,7 +1172,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1192,7 +1192,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1224,7 +1224,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1244,47 +1244,47 @@
         <v>33</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="11">
+        <v>805356</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1127011</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1893092</v>
+      </c>
+      <c r="H34" s="11">
+        <v>3162917</v>
+      </c>
+      <c r="I34" s="11">
+        <v>6610469</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="11">
-        <v>805356</v>
-      </c>
-      <c r="G34" s="11">
-        <v>1127011</v>
-      </c>
-      <c r="H34" s="11">
-        <v>1893092</v>
-      </c>
-      <c r="I34" s="11">
-        <v>3162917</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C35" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
-        <v>13</v>
+      <c r="E35" s="13">
+        <v>524130</v>
       </c>
       <c r="F35" s="13">
-        <v>524130</v>
+        <v>714219</v>
       </c>
       <c r="G35" s="13">
-        <v>714219</v>
-      </c>
-      <c r="H35" s="13">
         <v>1236794</v>
       </c>
+      <c r="H35" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="I35" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
@@ -1292,23 +1292,23 @@
         <v>33</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
+      <c r="E36" s="11">
+        <v>33381</v>
       </c>
       <c r="F36" s="11">
-        <v>33381</v>
+        <v>567</v>
       </c>
       <c r="G36" s="11">
-        <v>567</v>
+        <v>69026</v>
       </c>
       <c r="H36" s="11">
-        <v>69026</v>
+        <v>208955</v>
       </c>
       <c r="I36" s="11">
-        <v>208955</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>576535</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>16</v>
       </c>
@@ -1316,23 +1316,23 @@
         <v>33</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
+      <c r="E37" s="13">
+        <v>160164</v>
       </c>
       <c r="F37" s="13">
-        <v>160164</v>
+        <v>333827</v>
       </c>
       <c r="G37" s="13">
-        <v>333827</v>
+        <v>348416</v>
       </c>
       <c r="H37" s="13">
-        <v>348416</v>
+        <v>556641</v>
       </c>
       <c r="I37" s="13">
-        <v>556641</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>735484</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -1341,22 +1341,22 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H38" s="11">
+        <v>391561</v>
       </c>
       <c r="I38" s="11">
-        <v>391561</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>791365</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>18</v>
       </c>
@@ -1364,23 +1364,23 @@
         <v>33</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
-        <v>13</v>
+      <c r="E39" s="13">
+        <v>21838</v>
       </c>
       <c r="F39" s="13">
-        <v>21838</v>
+        <v>10138</v>
       </c>
       <c r="G39" s="13">
-        <v>10138</v>
+        <v>20621</v>
       </c>
       <c r="H39" s="13">
-        <v>20621</v>
+        <v>31820</v>
       </c>
       <c r="I39" s="13">
-        <v>31820</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56785</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>19</v>
       </c>
@@ -1389,22 +1389,22 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1174835</v>
       </c>
       <c r="I40" s="11">
-        <v>1174835</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2647924</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>20</v>
       </c>
@@ -1413,22 +1413,22 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H41" s="13">
+        <v>22669</v>
       </c>
       <c r="I41" s="13">
-        <v>22669</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>205625</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1437,44 +1437,44 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H42" s="11">
+        <v>408702</v>
       </c>
       <c r="I42" s="11">
-        <v>408702</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1189452</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
-        <v>0</v>
+        <v>1544869</v>
       </c>
       <c r="F43" s="15">
-        <v>1544869</v>
+        <v>2185762</v>
       </c>
       <c r="G43" s="15">
-        <v>2185762</v>
+        <v>3567949</v>
       </c>
       <c r="H43" s="15">
-        <v>3567949</v>
+        <v>5958100</v>
       </c>
       <c r="I43" s="15">
-        <v>5958100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12813639</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>34</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>24</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>26</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
@@ -1550,8 +1550,8 @@
         <v>33</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>13</v>
+      <c r="E48" s="15">
+        <v>0</v>
       </c>
       <c r="F48" s="15">
         <v>0</v>
@@ -1559,14 +1559,14 @@
       <c r="G48" s="15">
         <v>0</v>
       </c>
-      <c r="H48" s="15">
-        <v>0</v>
+      <c r="H48" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>29</v>
       </c>
@@ -1574,8 +1574,8 @@
         <v>33</v>
       </c>
       <c r="D49" s="19"/>
-      <c r="E49" s="19" t="s">
-        <v>13</v>
+      <c r="E49" s="19">
+        <v>0</v>
       </c>
       <c r="F49" s="19">
         <v>0</v>
@@ -1590,29 +1590,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>0</v>
+        <v>1544869</v>
       </c>
       <c r="F50" s="15">
-        <v>1544869</v>
+        <v>2185762</v>
       </c>
       <c r="G50" s="15">
-        <v>2185762</v>
+        <v>3567949</v>
       </c>
       <c r="H50" s="15">
-        <v>3567949</v>
+        <v>5958100</v>
       </c>
       <c r="I50" s="15">
-        <v>5958100</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12813639</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1622,7 +1622,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1632,7 +1632,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1642,7 +1642,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1674,7 +1674,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>37</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>11</v>
       </c>
@@ -1694,47 +1694,47 @@
         <v>38</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="11">
+        <v>87519670</v>
+      </c>
+      <c r="F57" s="11">
+        <v>113598528</v>
+      </c>
+      <c r="G57" s="11">
+        <v>179968818</v>
+      </c>
+      <c r="H57" s="11">
+        <v>275731584</v>
+      </c>
+      <c r="I57" s="11">
+        <v>535260648</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F57" s="11">
-        <v>87519670</v>
-      </c>
-      <c r="G57" s="11">
-        <v>113598528</v>
-      </c>
-      <c r="H57" s="11">
-        <v>179968818</v>
-      </c>
-      <c r="I57" s="11">
-        <v>275731584</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
-        <v>13</v>
+      <c r="E58" s="13">
+        <v>64294652</v>
       </c>
       <c r="F58" s="13">
-        <v>64294652</v>
+        <v>90487647</v>
       </c>
       <c r="G58" s="13">
-        <v>90487647</v>
-      </c>
-      <c r="H58" s="13">
         <v>140672657</v>
       </c>
+      <c r="H58" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="I58" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>15</v>
       </c>
@@ -1742,23 +1742,23 @@
         <v>38</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>13</v>
+      <c r="E59" s="11">
+        <v>90956403</v>
       </c>
       <c r="F59" s="11">
-        <v>90956403</v>
+        <v>94500000</v>
       </c>
       <c r="G59" s="11">
-        <v>94500000</v>
+        <v>175638677</v>
       </c>
       <c r="H59" s="11">
-        <v>175638677</v>
+        <v>249349642</v>
       </c>
       <c r="I59" s="11">
-        <v>249349642</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>574810568</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
@@ -1766,23 +1766,23 @@
         <v>38</v>
       </c>
       <c r="D60" s="13"/>
-      <c r="E60" s="13" t="s">
-        <v>13</v>
+      <c r="E60" s="13">
+        <v>8096451</v>
       </c>
       <c r="F60" s="13">
-        <v>8096451</v>
+        <v>15002112</v>
       </c>
       <c r="G60" s="13">
-        <v>15002112</v>
+        <v>18000413</v>
       </c>
       <c r="H60" s="13">
-        <v>18000413</v>
+        <v>28000050</v>
       </c>
       <c r="I60" s="13">
-        <v>28000050</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41001449</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>17</v>
       </c>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H61" s="11">
+        <v>175745512</v>
       </c>
       <c r="I61" s="11">
-        <v>175745512</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>414979025</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>18</v>
       </c>
@@ -1814,23 +1814,23 @@
         <v>38</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>13</v>
+      <c r="E62" s="13">
+        <v>130766467</v>
       </c>
       <c r="F62" s="13">
-        <v>130766467</v>
+        <v>151313433</v>
       </c>
       <c r="G62" s="13">
-        <v>151313433</v>
+        <v>271328947</v>
       </c>
       <c r="H62" s="13">
-        <v>271328947</v>
+        <v>467941176</v>
       </c>
       <c r="I62" s="13">
-        <v>467941176</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>822971014</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
@@ -1839,22 +1839,22 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H63" s="11">
+        <v>184345677</v>
       </c>
       <c r="I63" s="11">
-        <v>184345677</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>479088837</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>20</v>
       </c>
@@ -1863,22 +1863,22 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H64" s="13">
+        <v>190495798</v>
       </c>
       <c r="I64" s="13">
-        <v>190495798</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>409611554</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>21</v>
       </c>
@@ -1887,22 +1887,22 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H65" s="11">
+        <v>374269231</v>
       </c>
       <c r="I65" s="11">
-        <v>374269231</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>658976177</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1912,7 +1912,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1922,7 +1922,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1932,7 +1932,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>39</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1964,7 +1964,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>40</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>11</v>
       </c>
@@ -1984,47 +1984,47 @@
         <v>33</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="11">
+        <v>-690554</v>
+      </c>
+      <c r="F72" s="11">
+        <v>-950983</v>
+      </c>
+      <c r="G72" s="11">
+        <v>-1486756</v>
+      </c>
+      <c r="H72" s="11">
+        <v>-2426701</v>
+      </c>
+      <c r="I72" s="11">
+        <v>-4348731</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="11">
-        <v>-690554</v>
-      </c>
-      <c r="G72" s="11">
-        <v>-950983</v>
-      </c>
-      <c r="H72" s="11">
-        <v>-1486756</v>
-      </c>
-      <c r="I72" s="11">
-        <v>-2426701</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C73" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="13"/>
-      <c r="E73" s="13" t="s">
-        <v>13</v>
+      <c r="E73" s="13">
+        <v>-444775</v>
       </c>
       <c r="F73" s="13">
-        <v>-444775</v>
+        <v>-575642</v>
       </c>
       <c r="G73" s="13">
-        <v>-575642</v>
-      </c>
-      <c r="H73" s="13">
         <v>-954763</v>
       </c>
+      <c r="H73" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="I73" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>15</v>
       </c>
@@ -2032,23 +2032,23 @@
         <v>33</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>13</v>
+      <c r="E74" s="11">
+        <v>-26008</v>
       </c>
       <c r="F74" s="11">
-        <v>-26008</v>
+        <v>-446</v>
       </c>
       <c r="G74" s="11">
-        <v>-446</v>
+        <v>-54546</v>
       </c>
       <c r="H74" s="11">
-        <v>-54546</v>
+        <v>-176959</v>
       </c>
       <c r="I74" s="11">
-        <v>-176959</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-366413</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>16</v>
       </c>
@@ -2056,23 +2056,23 @@
         <v>33</v>
       </c>
       <c r="D75" s="13"/>
-      <c r="E75" s="13" t="s">
-        <v>13</v>
+      <c r="E75" s="13">
+        <v>-113802</v>
       </c>
       <c r="F75" s="13">
-        <v>-113802</v>
+        <v>-206298</v>
       </c>
       <c r="G75" s="13">
-        <v>-206298</v>
+        <v>-277156</v>
       </c>
       <c r="H75" s="13">
-        <v>-277156</v>
+        <v>-439786</v>
       </c>
       <c r="I75" s="13">
-        <v>-439786</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-647720</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>17</v>
       </c>
@@ -2081,22 +2081,22 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H76" s="11">
+        <v>-328933</v>
       </c>
       <c r="I76" s="11">
-        <v>-328933</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-539169</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>18</v>
       </c>
@@ -2104,23 +2104,23 @@
         <v>33</v>
       </c>
       <c r="D77" s="13"/>
-      <c r="E77" s="13" t="s">
-        <v>13</v>
+      <c r="E77" s="13">
+        <v>-21455</v>
       </c>
       <c r="F77" s="13">
-        <v>-21455</v>
+        <v>-9309</v>
       </c>
       <c r="G77" s="13">
-        <v>-9309</v>
+        <v>-14528</v>
       </c>
       <c r="H77" s="13">
-        <v>-14528</v>
+        <v>-22767</v>
       </c>
       <c r="I77" s="13">
-        <v>-22767</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-45422</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
@@ -2129,22 +2129,22 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H78" s="11">
+        <v>-944946</v>
       </c>
       <c r="I78" s="11">
-        <v>-944946</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1631704</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>20</v>
       </c>
@@ -2153,22 +2153,22 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H79" s="13">
+        <v>-19491</v>
       </c>
       <c r="I79" s="13">
-        <v>-19491</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-167118</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>21</v>
       </c>
@@ -2177,44 +2177,44 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H80" s="11">
+        <v>-303909</v>
       </c>
       <c r="I80" s="11">
-        <v>-303909</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-790135</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
-        <v>0</v>
+        <v>-1296594</v>
       </c>
       <c r="F81" s="15">
-        <v>-1296594</v>
+        <v>-1742678</v>
       </c>
       <c r="G81" s="15">
-        <v>-1742678</v>
+        <v>-2787749</v>
       </c>
       <c r="H81" s="15">
-        <v>-2787749</v>
+        <v>-4663492</v>
       </c>
       <c r="I81" s="15">
-        <v>-4663492</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8536412</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
         <v>42</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>43</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>44</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>45</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>27</v>
       </c>
@@ -2290,8 +2290,8 @@
         <v>33</v>
       </c>
       <c r="D86" s="15"/>
-      <c r="E86" s="15" t="s">
-        <v>13</v>
+      <c r="E86" s="15">
+        <v>0</v>
       </c>
       <c r="F86" s="15">
         <v>0</v>
@@ -2299,14 +2299,14 @@
       <c r="G86" s="15">
         <v>0</v>
       </c>
-      <c r="H86" s="15">
-        <v>0</v>
+      <c r="H86" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="18" t="s">
         <v>29</v>
       </c>
@@ -2314,8 +2314,8 @@
         <v>33</v>
       </c>
       <c r="D87" s="19"/>
-      <c r="E87" s="19" t="s">
-        <v>13</v>
+      <c r="E87" s="19">
+        <v>0</v>
       </c>
       <c r="F87" s="19">
         <v>0</v>
@@ -2330,29 +2330,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
-        <v>0</v>
+        <v>-1296594</v>
       </c>
       <c r="F88" s="15">
-        <v>-1296594</v>
+        <v>-1742678</v>
       </c>
       <c r="G88" s="15">
-        <v>-1742678</v>
+        <v>-2787749</v>
       </c>
       <c r="H88" s="15">
-        <v>-2787749</v>
+        <v>-4663492</v>
       </c>
       <c r="I88" s="15">
-        <v>-4663492</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8536412</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2362,7 +2362,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2372,7 +2372,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2382,7 +2382,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>46</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2414,7 +2414,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>47</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>11</v>
       </c>
@@ -2434,47 +2434,47 @@
         <v>33</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="11">
+        <v>114802</v>
+      </c>
+      <c r="F95" s="11">
+        <v>176028</v>
+      </c>
+      <c r="G95" s="11">
+        <v>406336</v>
+      </c>
+      <c r="H95" s="11">
+        <v>736216</v>
+      </c>
+      <c r="I95" s="11">
+        <v>2261738</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="11">
-        <v>114802</v>
-      </c>
-      <c r="G95" s="11">
-        <v>176028</v>
-      </c>
-      <c r="H95" s="11">
-        <v>406336</v>
-      </c>
-      <c r="I95" s="11">
-        <v>736216</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C96" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="13"/>
-      <c r="E96" s="13" t="s">
-        <v>13</v>
+      <c r="E96" s="13">
+        <v>79355</v>
       </c>
       <c r="F96" s="13">
-        <v>79355</v>
+        <v>138577</v>
       </c>
       <c r="G96" s="13">
-        <v>138577</v>
-      </c>
-      <c r="H96" s="13">
         <v>282031</v>
       </c>
+      <c r="H96" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="I96" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>15</v>
       </c>
@@ -2482,23 +2482,23 @@
         <v>33</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>13</v>
+      <c r="E97" s="11">
+        <v>7373</v>
       </c>
       <c r="F97" s="11">
-        <v>7373</v>
+        <v>121</v>
       </c>
       <c r="G97" s="11">
-        <v>121</v>
+        <v>14480</v>
       </c>
       <c r="H97" s="11">
-        <v>14480</v>
+        <v>31996</v>
       </c>
       <c r="I97" s="11">
-        <v>31996</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>210122</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>16</v>
       </c>
@@ -2506,23 +2506,23 @@
         <v>33</v>
       </c>
       <c r="D98" s="13"/>
-      <c r="E98" s="13" t="s">
-        <v>13</v>
+      <c r="E98" s="13">
+        <v>46362</v>
       </c>
       <c r="F98" s="13">
-        <v>46362</v>
+        <v>127529</v>
       </c>
       <c r="G98" s="13">
-        <v>127529</v>
+        <v>71260</v>
       </c>
       <c r="H98" s="13">
-        <v>71260</v>
+        <v>116855</v>
       </c>
       <c r="I98" s="13">
-        <v>116855</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>87764</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>17</v>
       </c>
@@ -2531,22 +2531,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H99" s="11">
+        <v>62628</v>
       </c>
       <c r="I99" s="11">
-        <v>62628</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>252196</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>18</v>
       </c>
@@ -2554,23 +2554,23 @@
         <v>33</v>
       </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="13" t="s">
-        <v>13</v>
+      <c r="E100" s="13">
+        <v>383</v>
       </c>
       <c r="F100" s="13">
-        <v>383</v>
+        <v>829</v>
       </c>
       <c r="G100" s="13">
-        <v>829</v>
+        <v>6093</v>
       </c>
       <c r="H100" s="13">
-        <v>6093</v>
+        <v>9053</v>
       </c>
       <c r="I100" s="13">
-        <v>9053</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11363</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>19</v>
       </c>
@@ -2579,22 +2579,22 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H101" s="11">
+        <v>229889</v>
       </c>
       <c r="I101" s="11">
-        <v>229889</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1016220</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>20</v>
       </c>
@@ -2603,22 +2603,22 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H102" s="13">
+        <v>3178</v>
       </c>
       <c r="I102" s="13">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38507</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>21</v>
       </c>
@@ -2627,44 +2627,44 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H103" s="11">
+        <v>104793</v>
       </c>
       <c r="I103" s="11">
-        <v>104793</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>399317</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>0</v>
+        <v>248275</v>
       </c>
       <c r="F104" s="15">
-        <v>248275</v>
+        <v>443084</v>
       </c>
       <c r="G104" s="15">
-        <v>443084</v>
+        <v>780200</v>
       </c>
       <c r="H104" s="15">
-        <v>780200</v>
+        <v>1294608</v>
       </c>
       <c r="I104" s="15">
-        <v>1294608</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4277227</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>49</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>50</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="16" t="s">
         <v>51</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>52</v>
       </c>
@@ -2732,26 +2732,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
-        <v>0</v>
+        <v>248275</v>
       </c>
       <c r="F109" s="15">
-        <v>248275</v>
+        <v>443084</v>
       </c>
       <c r="G109" s="15">
-        <v>443084</v>
+        <v>780200</v>
       </c>
       <c r="H109" s="15">
-        <v>780200</v>
+        <v>1294608</v>
       </c>
       <c r="I109" s="15">
-        <v>1294608</v>
+        <v>4277227</v>
       </c>
     </row>
   </sheetData>
